--- a/src/test/resources/Project_V_Mal.xlsx
+++ b/src/test/resources/Project_V_Mal.xlsx
@@ -3,20 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Selenium Install Files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D15E5706-EAD5-4CB0-BF52-65FE4FD21885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2677073B-225B-43DA-95FC-5E7EE8DED3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{57A6DEC7-4ED9-4839-953C-304EA42C576E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{57A6DEC7-4ED9-4839-953C-304EA42C576E}"/>
   </bookViews>
   <sheets>
     <sheet name="Organizations" sheetId="1" r:id="rId1"/>
     <sheet name="Contacts" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:D6"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -477,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD3C7B31-E20D-4449-9871-D4A48F0D70BD}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -612,7 +608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CCED9A-9989-41CE-978B-EB689F660DA0}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
